--- a/debug/JUP_debug.xlsx
+++ b/debug/JUP_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE730"/>
+  <dimension ref="A1:AE740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -74572,13 +74572,13 @@
         <v>0.3413</v>
       </c>
       <c r="C730" t="n">
-        <v>0.3505</v>
+        <v>0.3562</v>
       </c>
       <c r="D730" t="n">
         <v>0.3348</v>
       </c>
       <c r="E730" t="n">
-        <v>0.3457</v>
+        <v>0.3512</v>
       </c>
       <c r="F730" t="inlineStr">
         <is>
@@ -74616,7 +74616,7 @@
         <v>0.3175</v>
       </c>
       <c r="Q730" t="n">
-        <v>10.393701</v>
+        <v>12.188976</v>
       </c>
       <c r="R730" t="n">
         <v>17.3</v>
@@ -74661,6 +74661,1026 @@
       </c>
       <c r="AE730" t="n">
         <v>0.3348</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.3511</v>
+      </c>
+      <c r="C731" t="n">
+        <v>0.3693</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0.3442</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.3637</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G731" t="b">
+        <v>1</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2</v>
+      </c>
+      <c r="I731" t="n">
+        <v/>
+      </c>
+      <c r="J731" t="n">
+        <v/>
+      </c>
+      <c r="K731" t="n">
+        <v/>
+      </c>
+      <c r="L731" t="n">
+        <v/>
+      </c>
+      <c r="M731" t="n">
+        <v/>
+      </c>
+      <c r="N731" t="n">
+        <v/>
+      </c>
+      <c r="O731" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P731" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>16.314961</v>
+      </c>
+      <c r="R731" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S731" t="n">
+        <v>6</v>
+      </c>
+      <c r="T731" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U731" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V731" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W731" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X731" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y731" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z731" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA731" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB731" t="n">
+        <v>0.3818115</v>
+      </c>
+      <c r="AC731" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD731" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AE731" t="n">
+        <v>0.3442</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="C732" t="n">
+        <v>0.3749</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G732" t="b">
+        <v>0</v>
+      </c>
+      <c r="H732" t="n">
+        <v/>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K732" t="n">
+        <v/>
+      </c>
+      <c r="L732" t="n">
+        <v/>
+      </c>
+      <c r="M732" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="N732" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="O732" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P732" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q732" t="n">
+        <v/>
+      </c>
+      <c r="R732" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S732" t="n">
+        <v>6</v>
+      </c>
+      <c r="T732" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U732" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V732" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W732" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X732" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y732" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z732" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA732" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB732" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC732" t="n">
+        <v/>
+      </c>
+      <c r="AD732" t="n">
+        <v/>
+      </c>
+      <c r="AE732" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="C733" t="n">
+        <v>0.3749</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G733" t="b">
+        <v>0</v>
+      </c>
+      <c r="H733" t="n">
+        <v/>
+      </c>
+      <c r="I733" t="n">
+        <v/>
+      </c>
+      <c r="J733" t="n">
+        <v/>
+      </c>
+      <c r="K733" t="n">
+        <v/>
+      </c>
+      <c r="L733" t="n">
+        <v/>
+      </c>
+      <c r="M733" t="n">
+        <v/>
+      </c>
+      <c r="N733" t="n">
+        <v/>
+      </c>
+      <c r="O733" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P733" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>18.07874</v>
+      </c>
+      <c r="R733" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S733" t="n">
+        <v>6</v>
+      </c>
+      <c r="T733" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U733" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V733" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W733" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X733" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y733" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z733" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA733" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB733" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC733" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD733" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AE733" t="n">
+        <v>0.3472</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="C734" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G734" t="b">
+        <v>1</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2</v>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>BUY B2</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L734" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="N734" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="O734" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P734" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q734" t="n">
+        <v/>
+      </c>
+      <c r="R734" t="n">
+        <v/>
+      </c>
+      <c r="S734" t="n">
+        <v>6</v>
+      </c>
+      <c r="T734" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U734" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V734" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W734" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X734" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y734" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z734" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA734" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB734" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC734" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD734" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AE734" t="n">
+        <v>0.3336</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="C735" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G735" t="b">
+        <v>1</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2</v>
+      </c>
+      <c r="I735" t="n">
+        <v/>
+      </c>
+      <c r="J735" t="n">
+        <v/>
+      </c>
+      <c r="K735" t="n">
+        <v/>
+      </c>
+      <c r="L735" t="n">
+        <v/>
+      </c>
+      <c r="M735" t="n">
+        <v/>
+      </c>
+      <c r="N735" t="n">
+        <v/>
+      </c>
+      <c r="O735" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P735" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>13.354331</v>
+      </c>
+      <c r="R735" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S735" t="n">
+        <v>6</v>
+      </c>
+      <c r="T735" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U735" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V735" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W735" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X735" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y735" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z735" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA735" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB735" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC735" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD735" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AE735" t="n">
+        <v>0.3336</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="C736" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G736" t="b">
+        <v>1</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2</v>
+      </c>
+      <c r="I736" t="n">
+        <v/>
+      </c>
+      <c r="J736" t="n">
+        <v/>
+      </c>
+      <c r="K736" t="n">
+        <v/>
+      </c>
+      <c r="L736" t="n">
+        <v/>
+      </c>
+      <c r="M736" t="n">
+        <v/>
+      </c>
+      <c r="N736" t="n">
+        <v/>
+      </c>
+      <c r="O736" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P736" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>14.362205</v>
+      </c>
+      <c r="R736" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S736" t="n">
+        <v>6</v>
+      </c>
+      <c r="T736" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U736" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V736" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W736" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X736" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y736" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z736" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA736" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB736" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC736" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD736" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AE736" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="C737" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G737" t="b">
+        <v>0</v>
+      </c>
+      <c r="H737" t="n">
+        <v/>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>SELL S</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="K737" t="n">
+        <v/>
+      </c>
+      <c r="L737" t="n">
+        <v/>
+      </c>
+      <c r="M737" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="N737" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="O737" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P737" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q737" t="n">
+        <v/>
+      </c>
+      <c r="R737" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S737" t="n">
+        <v>6</v>
+      </c>
+      <c r="T737" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U737" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V737" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W737" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X737" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y737" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z737" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA737" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB737" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC737" t="n">
+        <v/>
+      </c>
+      <c r="AD737" t="n">
+        <v/>
+      </c>
+      <c r="AE737" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="C738" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.4046</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G738" t="b">
+        <v>0</v>
+      </c>
+      <c r="H738" t="n">
+        <v/>
+      </c>
+      <c r="I738" t="n">
+        <v/>
+      </c>
+      <c r="J738" t="n">
+        <v/>
+      </c>
+      <c r="K738" t="n">
+        <v/>
+      </c>
+      <c r="L738" t="n">
+        <v/>
+      </c>
+      <c r="M738" t="n">
+        <v/>
+      </c>
+      <c r="N738" t="n">
+        <v/>
+      </c>
+      <c r="O738" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P738" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>28.125984</v>
+      </c>
+      <c r="R738" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S738" t="n">
+        <v>6</v>
+      </c>
+      <c r="T738" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U738" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V738" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W738" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X738" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y738" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z738" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA738" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB738" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC738" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD738" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AE738" t="n">
+        <v>0.3535</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="C739" t="n">
+        <v>0.4383</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0.3894</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G739" t="b">
+        <v>0</v>
+      </c>
+      <c r="H739" t="n">
+        <v/>
+      </c>
+      <c r="I739" t="n">
+        <v/>
+      </c>
+      <c r="J739" t="n">
+        <v/>
+      </c>
+      <c r="K739" t="n">
+        <v/>
+      </c>
+      <c r="L739" t="n">
+        <v/>
+      </c>
+      <c r="M739" t="n">
+        <v/>
+      </c>
+      <c r="N739" t="n">
+        <v/>
+      </c>
+      <c r="O739" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P739" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q739" t="n">
+        <v/>
+      </c>
+      <c r="R739" t="n">
+        <v/>
+      </c>
+      <c r="S739" t="n">
+        <v>6</v>
+      </c>
+      <c r="T739" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U739" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V739" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W739" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X739" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y739" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z739" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA739" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB739" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC739" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD739" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AE739" t="n">
+        <v>0.3894</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="C740" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.4338</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G740" t="b">
+        <v>0</v>
+      </c>
+      <c r="H740" t="n">
+        <v/>
+      </c>
+      <c r="I740" t="n">
+        <v/>
+      </c>
+      <c r="J740" t="n">
+        <v/>
+      </c>
+      <c r="K740" t="n">
+        <v/>
+      </c>
+      <c r="L740" t="n">
+        <v/>
+      </c>
+      <c r="M740" t="n">
+        <v/>
+      </c>
+      <c r="N740" t="n">
+        <v/>
+      </c>
+      <c r="O740" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P740" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="Q740" t="n">
+        <v/>
+      </c>
+      <c r="R740" t="n">
+        <v/>
+      </c>
+      <c r="S740" t="n">
+        <v>6</v>
+      </c>
+      <c r="T740" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="U740" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="V740" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="W740" t="n">
+        <v>0.2829</v>
+      </c>
+      <c r="X740" t="n">
+        <v>0.2415</v>
+      </c>
+      <c r="Y740" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="Z740" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AA740" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="AB740" t="n">
+        <v>0.3724275</v>
+      </c>
+      <c r="AC740" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD740" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="AE740" t="n">
+        <v>0.4194</v>
       </c>
     </row>
   </sheetData>
